--- a/biology/Botanique/Curcuma_alismatifolia/Curcuma_alismatifolia.xlsx
+++ b/biology/Botanique/Curcuma_alismatifolia/Curcuma_alismatifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curcuma alismatifolia (anglais : Siam tulip ou summer tulip, Thaï : ปทุมา pathuma, Khmer : ផ្កាចំហួយ ou ផ្កាចាហ៊ួយ) est une plante herbacée rhizomateuse vivace du genre Curcuma de la famille des Zingibéracées.
 Elle est originaire du Cambodge, du sud du Laos et de l'est de la Thaïlande.
-Le parc national de Pa Hin Ngam  et le parc national de Sai Thong, dans la Province de Chaiyaphum en Thaïlande, sont parmi les plus réputés pour leurs tulipes du Siam Curcuma alismatifolia (qui n'appartiennent pourtant pas à la famille des tulipes)[1],[2],[3].
+Le parc national de Pa Hin Ngam  et le parc national de Sai Thong, dans la Province de Chaiyaphum en Thaïlande, sont parmi les plus réputés pour leurs tulipes du Siam Curcuma alismatifolia (qui n'appartiennent pourtant pas à la famille des tulipes).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante vivace rhizomateuse formant des plantes ouvertes atteignant un mètre de hauteur. Elle fleurit en été.
 </t>
@@ -544,7 +558,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En décoration, on peut l'utiliser comme plante en pot ou en fleur coupée.
 </t>
